--- a/public/OpenAPI/exports/Server_list.xlsx
+++ b/public/OpenAPI/exports/Server_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Server</t>
   </si>
@@ -38,73 +38,58 @@
     <t>Description</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>admin</t>
+    <t>test.rebex.net</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Lorem ipsum</t>
+  </si>
+  <si>
+    <t>itcsubmit.wustl.edu</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>demo.wftpserver.com</t>
+  </si>
+  <si>
+    <t>demo-user</t>
+  </si>
+  <si>
+    <t>wrongpass</t>
+  </si>
+  <si>
+    <t>172.104.36.99</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>#xLxJ*PGuzQ3TfZ</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>vpn</t>
   </si>
   <si>
     <t>Off</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>Lorem ipsum</t>
-  </si>
-  <si>
-    <t>test.rebex.net</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>itcsubmit.wustl.edu</t>
-  </si>
-  <si>
-    <t>demo.wftpserver.com</t>
-  </si>
-  <si>
-    <t>demo-user</t>
-  </si>
-  <si>
-    <t>localhost</t>
-  </si>
-  <si>
-    <t>wrongpass</t>
-  </si>
-  <si>
-    <t>12.193.12.1</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Nothing</t>
-  </si>
-  <si>
-    <t>172.104.36.99</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>#xLxJ*PGuzQ3TfZ</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
 </sst>
 </file>
@@ -459,16 +444,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -476,22 +461,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -499,22 +484,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -522,22 +507,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -545,22 +530,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -568,22 +553,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -591,22 +576,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -614,45 +599,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/public/OpenAPI/exports/Server_list.xlsx
+++ b/public/OpenAPI/exports/Server_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Server</t>
   </si>
@@ -47,39 +47,48 @@
     <t>password</t>
   </si>
   <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum </t>
+  </si>
+  <si>
+    <t>itcsubmit.wustl.edu</t>
+  </si>
+  <si>
     <t>On</t>
   </si>
   <si>
-    <t>Invalid</t>
-  </si>
-  <si>
     <t>Lorem ipsum</t>
   </si>
   <si>
-    <t>itcsubmit.wustl.edu</t>
+    <t>demo.wftpserver.com</t>
+  </si>
+  <si>
+    <t>demo-user</t>
+  </si>
+  <si>
+    <t>wrongpass</t>
+  </si>
+  <si>
+    <t>Lorem ipsum edited</t>
+  </si>
+  <si>
+    <t>172.104.36.99</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>#xLxJ*PGuzQ3TfZ</t>
   </si>
   <si>
     <t>Valid</t>
   </si>
   <si>
-    <t>demo.wftpserver.com</t>
-  </si>
-  <si>
-    <t>demo-user</t>
-  </si>
-  <si>
-    <t>wrongpass</t>
-  </si>
-  <si>
-    <t>172.104.36.99</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>#xLxJ*PGuzQ3TfZ</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -89,7 +98,10 @@
     <t>vpn</t>
   </si>
   <si>
-    <t>Off</t>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>ákdfjsa;fkj;adf</t>
   </si>
 </sst>
 </file>
@@ -470,13 +482,13 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -484,22 +496,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -513,16 +525,16 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -530,22 +542,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -553,22 +565,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -576,22 +588,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -599,22 +611,45 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/public/OpenAPI/exports/Server_list.xlsx
+++ b/public/OpenAPI/exports/Server_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Server</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>test.rebex.net</t>
+    <t>195.144.107.198</t>
   </si>
   <si>
     <t>demo</t>
@@ -47,61 +47,55 @@
     <t>password</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum </t>
+  </si>
+  <si>
+    <t>128.252.17.87</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Lorem ipsum</t>
+  </si>
+  <si>
+    <t>74.117.60.28</t>
+  </si>
+  <si>
+    <t>demo-user</t>
+  </si>
+  <si>
+    <t>wrongpass</t>
+  </si>
+  <si>
+    <t>Lorem ipsum edited</t>
+  </si>
+  <si>
+    <t>172.104.36.99</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>#xLxJ*PGuzQ3TfZ</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>vpn</t>
+  </si>
+  <si>
     <t>Off</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorem ipsum </t>
-  </si>
-  <si>
-    <t>itcsubmit.wustl.edu</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>Lorem ipsum</t>
-  </si>
-  <si>
-    <t>demo.wftpserver.com</t>
-  </si>
-  <si>
-    <t>demo-user</t>
-  </si>
-  <si>
-    <t>wrongpass</t>
-  </si>
-  <si>
-    <t>Lorem ipsum edited</t>
-  </si>
-  <si>
-    <t>172.104.36.99</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>#xLxJ*PGuzQ3TfZ</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-  </si>
-  <si>
-    <t>vpn</t>
-  </si>
-  <si>
-    <t>localhost</t>
-  </si>
-  <si>
-    <t>ákdfjsa;fkj;adf</t>
   </si>
 </sst>
 </file>
@@ -482,10 +476,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -505,10 +499,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -528,10 +522,10 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -551,10 +545,10 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
@@ -574,13 +568,13 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -597,13 +591,13 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -611,45 +605,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
